--- a/assets/excel/Despidos Injustificados grupo List.xlsx
+++ b/assets/excel/Despidos Injustificados grupo List.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="22">
   <si>
     <t>Calculos para grupo List</t>
   </si>
@@ -81,27 +81,6 @@
   </si>
   <si>
     <t>2020-06-15</t>
-  </si>
-  <si>
-    <t>q</t>
-  </si>
-  <si>
-    <t>2020-06-30</t>
-  </si>
-  <si>
-    <t>Electricista</t>
-  </si>
-  <si>
-    <t>DE</t>
-  </si>
-  <si>
-    <t>2020-06-18</t>
-  </si>
-  <si>
-    <t>mmm</t>
-  </si>
-  <si>
-    <t>2020-06-25</t>
   </si>
 </sst>
 </file>
@@ -499,16 +478,16 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:Y9"/>
+  <dimension ref="A1:Y5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="M9" sqref="M9"/>
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="17.567139" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="15.281982" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="12.854004" bestFit="true" customWidth="true" style="0"/>
     <col min="3" max="3" width="30.563965" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="17.567139" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="15.281982" bestFit="true" customWidth="true" style="0"/>
@@ -709,170 +688,6 @@
         <v>15349.3</v>
       </c>
     </row>
-    <row r="6" spans="1:25">
-      <c r="A6" s="5">
-        <v>9</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="5">
-        <v>200</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" s="5">
-        <v>29</v>
-      </c>
-      <c r="H6" s="5">
-        <v>12871.2</v>
-      </c>
-      <c r="I6" s="5">
-        <v>2145.21</v>
-      </c>
-      <c r="J6" s="5">
-        <v>858.082</v>
-      </c>
-      <c r="K6" s="5">
-        <v>214.521</v>
-      </c>
-      <c r="L6" s="5">
-        <v>1716.16</v>
-      </c>
-      <c r="M6" s="6">
-        <v>17805.2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:25">
-      <c r="A7" s="5">
-        <v>1</v>
-      </c>
-      <c r="B7" s="5">
-        <v>1</v>
-      </c>
-      <c r="C7" s="5">
-        <v>1</v>
-      </c>
-      <c r="D7" s="5">
-        <v>100</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" s="5">
-        <v>29</v>
-      </c>
-      <c r="H7" s="5">
-        <v>715.068</v>
-      </c>
-      <c r="I7" s="5">
-        <v>119.178</v>
-      </c>
-      <c r="J7" s="5">
-        <v>47.6712</v>
-      </c>
-      <c r="K7" s="5">
-        <v>11.9178</v>
-      </c>
-      <c r="L7" s="5">
-        <v>95.3425</v>
-      </c>
-      <c r="M7" s="6">
-        <v>989.178</v>
-      </c>
-    </row>
-    <row r="8" spans="1:25">
-      <c r="A8" s="5">
-        <v>20</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="5">
-        <v>300</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G8" s="5">
-        <v>17</v>
-      </c>
-      <c r="H8" s="5">
-        <v>25150.7</v>
-      </c>
-      <c r="I8" s="5">
-        <v>4191.78</v>
-      </c>
-      <c r="J8" s="5">
-        <v>1676.71</v>
-      </c>
-      <c r="K8" s="5">
-        <v>419.178</v>
-      </c>
-      <c r="L8" s="5">
-        <v>3353.42</v>
-      </c>
-      <c r="M8" s="6">
-        <v>34791.8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25">
-      <c r="A9" s="5">
-        <v>1</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="5">
-        <v>200</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G9" s="5">
-        <v>24</v>
-      </c>
-      <c r="H9" s="5">
-        <v>1183.56</v>
-      </c>
-      <c r="I9" s="5">
-        <v>197.26</v>
-      </c>
-      <c r="J9" s="5">
-        <v>78.9041</v>
-      </c>
-      <c r="K9" s="5">
-        <v>19.726</v>
-      </c>
-      <c r="L9" s="5">
-        <v>157.808</v>
-      </c>
-      <c r="M9" s="6">
-        <v>1637.26</v>
-      </c>
-    </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
